--- a/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -885,7 +886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,17 +897,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -916,13 +937,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8049</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1170,7 +1171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,17 +1182,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1201,14 +1222,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1217,13 +1260,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1417,7 +1418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,17 +1429,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1448,14 +1469,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6</v>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1464,14 +1507,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1480,13 +1545,781 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2813</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,431 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001128</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2345</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8253</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3683</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>460002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3028</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>210007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰技术领先灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>22.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0390</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001537</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0332</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002196</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金鹰技术领先灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>22.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>162107</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金鹰量化精选股票（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>960030</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合H</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
+      <c r="D5" t="n">
+        <v>2.93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -888,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010363</t>
+          <t>050004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
+          <t>博时精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.75</t>
+          <t>21.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>71.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8049</t>
+          <t>0.6184</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -977,32 +643,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>210003</t>
+          <t>481010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰行业优势混合</t>
+          <t>工银瑞信中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>18.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4102</t>
+          <t>0.5435</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1015,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001537</t>
+          <t>210003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加改革红利灵活配置混合</t>
+          <t>金鹰行业优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0337</t>
+          <t>0.4309</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1053,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000679</t>
+          <t>000793</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商丰利灵活配置混合A</t>
+          <t>工银高端制造行业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.35</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0167</t>
+          <t>0.3581</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1091,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>481015</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商睿祥定期开放混合</t>
+          <t>工银主题策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>45.36</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.3257</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1129,36 +795,568 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002416</t>
+          <t>013417</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商丰利灵活配置混合C</t>
+          <t>博时核心资产精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.35</t>
+          <t>78.78</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.2813</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1469,36 +1667,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050004</t>
+          <t>010363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时精选混合A</t>
+          <t>信达澳银匠心臻选两年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.93</t>
+          <t>58.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.11</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6184</t>
+          <t>0.8049</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1507,32 +1705,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>210003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>金鹰行业优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>85.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5435</t>
+          <t>0.4102</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1545,36 +1743,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210003</t>
+          <t>001537</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰行业优势混合</t>
+          <t>中加改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4309</t>
+          <t>0.0337</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1583,36 +1781,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000793</t>
+          <t>000679</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银高端制造行业股票</t>
+          <t>招商丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.74</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3581</t>
+          <t>0.0167</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1621,36 +1819,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>481015</t>
+          <t>003004</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银主题策略混合</t>
+          <t>招商睿祥定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>45.36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3257</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1659,568 +1857,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013417</t>
+          <t>002416</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时核心资产精选混合A</t>
+          <t>招商丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.78</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2813</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002450</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>平安睿享文娱灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2187</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011828</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安睿享成长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1542</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011260</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金鹰新能源混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1528</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011261</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>金鹰新能源混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1179</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>71.12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>平安睿享文娱灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0770</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000969</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源大安全核心精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>79.89</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0496</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011829</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>平安睿享成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0474</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007893</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>平安估值精选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001060</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源高端装备制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>80.63</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0345</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>71.12</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007894</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>平安估值精选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>013418</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时核心资产精选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>78.78</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>013312</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>工银主题策略混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2234,96 +1900,430 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.6</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2345</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3683</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>2.93</v>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>3.6</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.28</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.93</v>
       </c>
     </row>
@@ -549,6 +566,1428 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银新增益混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016751</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1364,7 +2803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1610,7 +3049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1894,7 +3333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
+++ b/数据整理/stocks/A股/创业板/300811-铂科新材.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>4.56</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.28</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.93</v>
       </c>
     </row>
@@ -566,6 +583,1504 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012917</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发成长新动能混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发成长新动能混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013687</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012986</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安优势回报1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013688</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安成长龙头1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016370</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信澳业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013366</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016371</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信澳业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012918</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安优势领航1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016751</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1987,7 +3502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2803,7 +4318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3049,7 +4564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3333,7 +4848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
